--- a/mosol/mosol.xlsx
+++ b/mosol/mosol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2025-app\op3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\11111\mosol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06ADBCD-B61E-4572-9BE7-661ED562DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B818C-E62A-496B-87A0-E6EE548D0627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Report 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report 1'!$B$2:$BA$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report 1'!$B$2:$BB$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>Fecha Orden</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>J.GA+J.IVA+J.IDHE+100/F2.</t>
+  </si>
+  <si>
+    <t>CODIGO EMBARQUE</t>
+  </si>
+  <si>
+    <t>A0.</t>
   </si>
 </sst>
 </file>
@@ -932,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BA9"/>
+  <dimension ref="B1:BB9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AZ9" sqref="AZ9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -978,13 +984,14 @@
     <col min="48" max="48" width="12.5703125" customWidth="1"/>
     <col min="49" max="49" width="9.5703125" customWidth="1"/>
     <col min="50" max="50" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.42578125" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" customWidth="1"/>
-    <col min="53" max="53" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="252" width="8.85546875" customWidth="1"/>
+    <col min="51" max="51" width="25.28515625" customWidth="1"/>
+    <col min="52" max="52" width="16.42578125" customWidth="1"/>
+    <col min="53" max="53" width="18.42578125" customWidth="1"/>
+    <col min="54" max="54" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="253" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" s="1" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" s="1" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
@@ -1092,16 +1099,19 @@
         <v>77</v>
       </c>
       <c r="AY1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AZ1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BA1" t="s">
         <v>51</v>
       </c>
+      <c r="BB1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="2:53" s="12" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" s="12" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1249,25 +1259,29 @@
       <c r="AX2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:54" x14ac:dyDescent="0.2">
       <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
     </row>
-    <row r="9" spans="2:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.2">
       <c r="V9" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:BA2" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:BA16">
+  <autoFilter ref="B2:BB2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:BB16">
       <sortCondition ref="F2"/>
     </sortState>
   </autoFilter>
